--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-KW-kunstwerken.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-KW-kunstwerken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0F38C89-1A60-4268-B79D-E3DE94E64B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{74634385-6A6B-4CB8-AB91-F70097368D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{96EEE15C-0352-4AF4-853B-07690B5CFBEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27E873C9-DE06-4ACE-9257-49DB64DC1158}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-KW-kunstwe" sheetId="1" r:id="rId1"/>
@@ -22,30 +22,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="222">
   <si>
     <t>objectURI</t>
   </si>
@@ -590,6 +568,9 @@
     <t>KUNSTWERK_LANDHOOFD</t>
   </si>
   <si>
+    <t>204,100,110</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/b2865b00-8ca2-4071-8299-2f33771dd285</t>
   </si>
   <si>
@@ -602,6 +583,9 @@
     <t>KUNSTWERK_PERRON</t>
   </si>
   <si>
+    <t>255,153,153</t>
+  </si>
+  <si>
     <t>KUNSTWERK_SLUIS</t>
   </si>
   <si>
@@ -660,6 +644,9 @@
   </si>
   <si>
     <t>KUNSTWERK_STEIGER</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/513ffb5e-559a-4437-9327-d6d50ba9a37a</t>
@@ -708,7 +695,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,12 +829,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1191,9 +1172,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1568,16 +1548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207DD124-A346-4886-BD08-FC0A23D41CC0}">
-  <dimension ref="A1:BS127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC35C7D-1EFF-4D6A-9754-39800D8149A4}">
+  <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH16" workbookViewId="0">
-      <selection activeCell="AY67" sqref="AY67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="46.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -1809,13 +1789,52 @@
         <v>1422</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H2" t="s">
         <v>76</v>
       </c>
       <c r="I2" t="s">
         <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2">
+        <v>170</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2">
+        <v>170</v>
+      </c>
+      <c r="R2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2">
+        <v>170</v>
+      </c>
+      <c r="U2" t="s">
+        <v>181</v>
+      </c>
+      <c r="V2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" t="s">
+        <v>84</v>
       </c>
       <c r="X2" t="s">
         <v>85</v>
@@ -1946,7 +1965,7 @@
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1958,7 +1977,7 @@
         <v>1423</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
         <v>75</v>
@@ -1971,6 +1990,45 @@
       </c>
       <c r="I3" t="s">
         <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3">
+        <v>170</v>
+      </c>
+      <c r="N3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3">
+        <v>170</v>
+      </c>
+      <c r="R3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3">
+        <v>170</v>
+      </c>
+      <c r="U3" t="s">
+        <v>181</v>
+      </c>
+      <c r="V3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W3" t="s">
+        <v>84</v>
       </c>
       <c r="X3" t="s">
         <v>85</v>
@@ -2101,7 +2159,7 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -2113,7 +2171,7 @@
         <v>3516</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
         <v>75</v>
@@ -2126,6 +2184,45 @@
       </c>
       <c r="I4" t="s">
         <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4">
+        <v>170</v>
+      </c>
+      <c r="N4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4">
+        <v>170</v>
+      </c>
+      <c r="R4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4">
+        <v>170</v>
+      </c>
+      <c r="U4" t="s">
+        <v>181</v>
+      </c>
+      <c r="V4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" t="s">
+        <v>84</v>
       </c>
       <c r="X4" t="s">
         <v>85</v>
@@ -2268,7 +2365,7 @@
         <v>1424</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
         <v>75</v>
@@ -2281,6 +2378,45 @@
       </c>
       <c r="I5" t="s">
         <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>170</v>
+      </c>
+      <c r="N5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5">
+        <v>170</v>
+      </c>
+      <c r="R5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5">
+        <v>170</v>
+      </c>
+      <c r="U5" t="s">
+        <v>181</v>
+      </c>
+      <c r="V5" t="s">
+        <v>83</v>
+      </c>
+      <c r="W5" t="s">
+        <v>84</v>
       </c>
       <c r="X5" t="s">
         <v>85</v>
@@ -3199,7 +3335,7 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -3211,7 +3347,7 @@
         <v>3517</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -3224,6 +3360,45 @@
       </c>
       <c r="I10" t="s">
         <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10">
+        <v>170</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10">
+        <v>170</v>
+      </c>
+      <c r="R10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10">
+        <v>170</v>
+      </c>
+      <c r="U10" t="s">
+        <v>181</v>
+      </c>
+      <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W10" t="s">
+        <v>84</v>
       </c>
       <c r="X10" t="s">
         <v>85</v>
@@ -3354,7 +3529,7 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -3366,7 +3541,7 @@
         <v>3511</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -3379,6 +3554,45 @@
       </c>
       <c r="I11" t="s">
         <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>170</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11">
+        <v>172</v>
+      </c>
+      <c r="P11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11">
+        <v>170</v>
+      </c>
+      <c r="R11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11">
+        <v>170</v>
+      </c>
+      <c r="U11" t="s">
+        <v>181</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" t="s">
+        <v>84</v>
       </c>
       <c r="X11" t="s">
         <v>85</v>
@@ -3509,7 +3723,7 @@
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -3521,7 +3735,7 @@
         <v>1429</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -3534,6 +3748,45 @@
       </c>
       <c r="I12" t="s">
         <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <v>170</v>
+      </c>
+      <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12">
+        <v>170</v>
+      </c>
+      <c r="R12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12">
+        <v>170</v>
+      </c>
+      <c r="U12" t="s">
+        <v>181</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W12" t="s">
+        <v>84</v>
       </c>
       <c r="X12" t="s">
         <v>85</v>
@@ -3664,7 +3917,7 @@
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -3676,7 +3929,7 @@
         <v>1430</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -3689,6 +3942,45 @@
       </c>
       <c r="I13" t="s">
         <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <v>170</v>
+      </c>
+      <c r="N13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13">
+        <v>170</v>
+      </c>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13">
+        <v>170</v>
+      </c>
+      <c r="U13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W13" t="s">
+        <v>84</v>
       </c>
       <c r="X13" t="s">
         <v>85</v>
@@ -5198,7 +5490,7 @@
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -5210,7 +5502,7 @@
         <v>3514</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -5223,6 +5515,45 @@
       </c>
       <c r="I21" t="s">
         <v>77</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21">
+        <v>170</v>
+      </c>
+      <c r="N21" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21">
+        <v>170</v>
+      </c>
+      <c r="R21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21">
+        <v>170</v>
+      </c>
+      <c r="U21" t="s">
+        <v>181</v>
+      </c>
+      <c r="V21" t="s">
+        <v>83</v>
+      </c>
+      <c r="W21" t="s">
+        <v>84</v>
       </c>
       <c r="X21" t="s">
         <v>85</v>
@@ -5379,6 +5710,45 @@
       <c r="I22" t="s">
         <v>77</v>
       </c>
+      <c r="J22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22">
+        <v>170</v>
+      </c>
+      <c r="N22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22">
+        <v>172</v>
+      </c>
+      <c r="P22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q22">
+        <v>170</v>
+      </c>
+      <c r="R22" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22">
+        <v>170</v>
+      </c>
+      <c r="U22" t="s">
+        <v>181</v>
+      </c>
+      <c r="V22" t="s">
+        <v>83</v>
+      </c>
+      <c r="W22" t="s">
+        <v>84</v>
+      </c>
       <c r="X22" t="s">
         <v>85</v>
       </c>
@@ -5508,7 +5878,7 @@
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -5520,7 +5890,7 @@
         <v>1438</v>
       </c>
       <c r="E23" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -5533,6 +5903,45 @@
       </c>
       <c r="I23" t="s">
         <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23">
+        <v>170</v>
+      </c>
+      <c r="N23" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23">
+        <v>170</v>
+      </c>
+      <c r="R23" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23">
+        <v>170</v>
+      </c>
+      <c r="U23" t="s">
+        <v>181</v>
+      </c>
+      <c r="V23" t="s">
+        <v>83</v>
+      </c>
+      <c r="W23" t="s">
+        <v>84</v>
       </c>
       <c r="X23" t="s">
         <v>85</v>
@@ -5860,7 +6269,7 @@
     </row>
     <row r="25" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -5872,7 +6281,7 @@
         <v>3515</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -5885,6 +6294,45 @@
       </c>
       <c r="I25" t="s">
         <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25">
+        <v>170</v>
+      </c>
+      <c r="N25" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25">
+        <v>170</v>
+      </c>
+      <c r="R25" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25">
+        <v>170</v>
+      </c>
+      <c r="U25" t="s">
+        <v>186</v>
+      </c>
+      <c r="V25" t="s">
+        <v>83</v>
+      </c>
+      <c r="W25" t="s">
+        <v>84</v>
       </c>
       <c r="X25" t="s">
         <v>85</v>
@@ -6015,7 +6463,7 @@
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
@@ -6027,7 +6475,7 @@
         <v>1470</v>
       </c>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -6040,6 +6488,45 @@
       </c>
       <c r="I26" t="s">
         <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26">
+        <v>170</v>
+      </c>
+      <c r="N26" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26">
+        <v>172</v>
+      </c>
+      <c r="P26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26">
+        <v>170</v>
+      </c>
+      <c r="R26" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26">
+        <v>170</v>
+      </c>
+      <c r="U26" t="s">
+        <v>181</v>
+      </c>
+      <c r="V26" t="s">
+        <v>83</v>
+      </c>
+      <c r="W26" t="s">
+        <v>84</v>
       </c>
       <c r="X26" t="s">
         <v>85</v>
@@ -6170,7 +6657,7 @@
     </row>
     <row r="27" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
@@ -6182,7 +6669,7 @@
         <v>3518</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -6195,6 +6682,45 @@
       </c>
       <c r="I27" t="s">
         <v>77</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27">
+        <v>170</v>
+      </c>
+      <c r="N27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q27">
+        <v>170</v>
+      </c>
+      <c r="R27" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27">
+        <v>170</v>
+      </c>
+      <c r="U27" t="s">
+        <v>181</v>
+      </c>
+      <c r="V27" t="s">
+        <v>83</v>
+      </c>
+      <c r="W27" t="s">
+        <v>84</v>
       </c>
       <c r="X27" t="s">
         <v>85</v>
@@ -6522,7 +7048,7 @@
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -6534,7 +7060,7 @@
         <v>3513</v>
       </c>
       <c r="E29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -6547,6 +7073,45 @@
       </c>
       <c r="I29" t="s">
         <v>77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29">
+        <v>170</v>
+      </c>
+      <c r="N29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29">
+        <v>172</v>
+      </c>
+      <c r="P29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q29">
+        <v>170</v>
+      </c>
+      <c r="R29" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29">
+        <v>170</v>
+      </c>
+      <c r="U29" t="s">
+        <v>181</v>
+      </c>
+      <c r="V29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W29" t="s">
+        <v>84</v>
       </c>
       <c r="X29" t="s">
         <v>85</v>
@@ -6874,7 +7439,7 @@
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
@@ -6886,7 +7451,7 @@
         <v>3512</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -6899,6 +7464,45 @@
       </c>
       <c r="I31" t="s">
         <v>77</v>
+      </c>
+      <c r="J31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31">
+        <v>170</v>
+      </c>
+      <c r="N31" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31">
+        <v>172</v>
+      </c>
+      <c r="P31" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q31">
+        <v>170</v>
+      </c>
+      <c r="R31" t="s">
+        <v>80</v>
+      </c>
+      <c r="S31">
+        <v>170</v>
+      </c>
+      <c r="U31" t="s">
+        <v>181</v>
+      </c>
+      <c r="V31" t="s">
+        <v>83</v>
+      </c>
+      <c r="W31" t="s">
+        <v>84</v>
       </c>
       <c r="X31" t="s">
         <v>85</v>
@@ -7041,7 +7645,7 @@
         <v>1440</v>
       </c>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F32" t="s">
         <v>75</v>
@@ -7054,6 +7658,45 @@
       </c>
       <c r="I32" t="s">
         <v>77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32">
+        <v>170</v>
+      </c>
+      <c r="N32" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q32">
+        <v>170</v>
+      </c>
+      <c r="R32" t="s">
+        <v>80</v>
+      </c>
+      <c r="S32">
+        <v>170</v>
+      </c>
+      <c r="U32" t="s">
+        <v>181</v>
+      </c>
+      <c r="V32" t="s">
+        <v>83</v>
+      </c>
+      <c r="W32" t="s">
+        <v>84</v>
       </c>
       <c r="X32" t="s">
         <v>85</v>
@@ -8366,7 +9009,7 @@
     </row>
     <row r="39" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
@@ -8378,7 +9021,7 @@
         <v>1447</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
         <v>75</v>
@@ -8391,6 +9034,45 @@
       </c>
       <c r="I39" t="s">
         <v>77</v>
+      </c>
+      <c r="J39" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39" t="s">
+        <v>80</v>
+      </c>
+      <c r="M39">
+        <v>170</v>
+      </c>
+      <c r="N39" t="s">
+        <v>91</v>
+      </c>
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q39">
+        <v>170</v>
+      </c>
+      <c r="R39" t="s">
+        <v>80</v>
+      </c>
+      <c r="S39">
+        <v>170</v>
+      </c>
+      <c r="U39" t="s">
+        <v>207</v>
+      </c>
+      <c r="V39" t="s">
+        <v>83</v>
+      </c>
+      <c r="W39" t="s">
+        <v>84</v>
       </c>
       <c r="X39" t="s">
         <v>85</v>
@@ -8521,7 +9203,7 @@
     </row>
     <row r="40" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
         <v>72</v>
@@ -8533,7 +9215,7 @@
         <v>1448</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
         <v>75</v>
@@ -8546,6 +9228,45 @@
       </c>
       <c r="I40" t="s">
         <v>77</v>
+      </c>
+      <c r="J40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40">
+        <v>170</v>
+      </c>
+      <c r="N40" t="s">
+        <v>91</v>
+      </c>
+      <c r="O40">
+        <v>7</v>
+      </c>
+      <c r="P40" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q40">
+        <v>170</v>
+      </c>
+      <c r="R40" t="s">
+        <v>80</v>
+      </c>
+      <c r="S40">
+        <v>170</v>
+      </c>
+      <c r="U40" t="s">
+        <v>181</v>
+      </c>
+      <c r="V40" t="s">
+        <v>83</v>
+      </c>
+      <c r="W40" t="s">
+        <v>84</v>
       </c>
       <c r="X40" t="s">
         <v>85</v>
@@ -8885,7 +9606,7 @@
         <v>1449</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F42" t="s">
         <v>75</v>
@@ -8898,6 +9619,45 @@
       </c>
       <c r="I42" t="s">
         <v>77</v>
+      </c>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42">
+        <v>170</v>
+      </c>
+      <c r="N42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="P42" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q42">
+        <v>170</v>
+      </c>
+      <c r="R42" t="s">
+        <v>80</v>
+      </c>
+      <c r="S42">
+        <v>170</v>
+      </c>
+      <c r="U42" t="s">
+        <v>181</v>
+      </c>
+      <c r="V42" t="s">
+        <v>83</v>
+      </c>
+      <c r="W42" t="s">
+        <v>84</v>
       </c>
       <c r="X42" t="s">
         <v>85</v>
@@ -10419,7 +11179,7 @@
         <v>1457</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F50" t="s">
         <v>75</v>
@@ -10432,6 +11192,45 @@
       </c>
       <c r="I50" t="s">
         <v>77</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" t="s">
+        <v>80</v>
+      </c>
+      <c r="M50">
+        <v>170</v>
+      </c>
+      <c r="N50" t="s">
+        <v>81</v>
+      </c>
+      <c r="O50">
+        <v>172</v>
+      </c>
+      <c r="P50" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q50">
+        <v>170</v>
+      </c>
+      <c r="R50" t="s">
+        <v>80</v>
+      </c>
+      <c r="S50">
+        <v>170</v>
+      </c>
+      <c r="U50" t="s">
+        <v>181</v>
+      </c>
+      <c r="V50" t="s">
+        <v>83</v>
+      </c>
+      <c r="W50" t="s">
+        <v>84</v>
       </c>
       <c r="X50" t="s">
         <v>85</v>
@@ -11547,7 +12346,7 @@
     </row>
     <row r="56" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s">
         <v>72</v>
@@ -11559,7 +12358,7 @@
         <v>3519</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F56" t="s">
         <v>75</v>
@@ -11572,6 +12371,45 @@
       </c>
       <c r="I56" t="s">
         <v>77</v>
+      </c>
+      <c r="J56" t="s">
+        <v>78</v>
+      </c>
+      <c r="K56" t="s">
+        <v>79</v>
+      </c>
+      <c r="L56" t="s">
+        <v>80</v>
+      </c>
+      <c r="M56">
+        <v>170</v>
+      </c>
+      <c r="N56" t="s">
+        <v>91</v>
+      </c>
+      <c r="O56">
+        <v>7</v>
+      </c>
+      <c r="P56" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q56">
+        <v>170</v>
+      </c>
+      <c r="R56" t="s">
+        <v>80</v>
+      </c>
+      <c r="S56">
+        <v>170</v>
+      </c>
+      <c r="U56" t="s">
+        <v>181</v>
+      </c>
+      <c r="V56" t="s">
+        <v>83</v>
+      </c>
+      <c r="W56" t="s">
+        <v>84</v>
       </c>
       <c r="X56" t="s">
         <v>85</v>
@@ -11911,7 +12749,7 @@
         <v>1463</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F58" t="s">
         <v>92</v>
@@ -11924,6 +12762,45 @@
       </c>
       <c r="I58" t="s">
         <v>77</v>
+      </c>
+      <c r="J58" t="s">
+        <v>78</v>
+      </c>
+      <c r="K58" t="s">
+        <v>79</v>
+      </c>
+      <c r="L58" t="s">
+        <v>80</v>
+      </c>
+      <c r="M58">
+        <v>170</v>
+      </c>
+      <c r="N58" t="s">
+        <v>81</v>
+      </c>
+      <c r="O58">
+        <v>172</v>
+      </c>
+      <c r="P58" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q58">
+        <v>170</v>
+      </c>
+      <c r="R58" t="s">
+        <v>80</v>
+      </c>
+      <c r="S58">
+        <v>170</v>
+      </c>
+      <c r="U58" t="s">
+        <v>181</v>
+      </c>
+      <c r="V58" t="s">
+        <v>83</v>
+      </c>
+      <c r="W58" t="s">
+        <v>84</v>
       </c>
       <c r="X58" t="s">
         <v>85</v>
@@ -13037,1450 +13914,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:71" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="str" cm="1">
-        <f t="array" ref="A65:A127">_xlfn.UNIQUE(A1:A63)</f>
-        <v>objectURI</v>
-      </c>
-      <c r="B65" s="1" t="str" cm="1">
-        <f t="array" ref="B65:B66">_xlfn.UNIQUE(B1:B63)</f>
-        <v>hoofdgroepURI</v>
-      </c>
-      <c r="C65" s="1" t="str" cm="1">
-        <f t="array" ref="C65:C66">_xlfn.UNIQUE(C1:C63)</f>
-        <v>hoofdgroep</v>
-      </c>
-      <c r="D65" s="1" t="str" cm="1">
-        <f t="array" ref="D65:D127">_xlfn.UNIQUE(D1:D63)</f>
-        <v>id_nummer</v>
-      </c>
-      <c r="E65" s="1" t="str" cm="1">
-        <f t="array" ref="E65:E127">_xlfn.UNIQUE(E1:E63)</f>
-        <v>omschrijving</v>
-      </c>
-      <c r="F65" s="1" t="str" cm="1">
-        <f t="array" ref="F65:F77">_xlfn.UNIQUE(F1:F63)</f>
-        <v>kind_vanURI</v>
-      </c>
-      <c r="G65" s="1" t="str" cm="1">
-        <f t="array" ref="G65:G77">_xlfn.UNIQUE(G1:G63)</f>
-        <v>kind_van</v>
-      </c>
-      <c r="H65" s="1" t="str" cm="1">
-        <f t="array" ref="H65:H66">_xlfn.UNIQUE(H1:H63)</f>
-        <v>status</v>
-      </c>
-      <c r="I65" s="1" t="str" cm="1">
-        <f t="array" ref="I65:I66">_xlfn.UNIQUE(I1:I63)</f>
-        <v>discipline</v>
-      </c>
-      <c r="J65" s="1" t="str" cm="1">
-        <f t="array" ref="J65:J67">_xlfn.UNIQUE(J1:J63)</f>
-        <v>lw_bURI</v>
-      </c>
-      <c r="K65" s="1" t="str" cm="1">
-        <f t="array" ref="K65:K67">_xlfn.UNIQUE(K1:K63)</f>
-        <v>lw_b</v>
-      </c>
-      <c r="L65" s="1" t="str" cm="1">
-        <f t="array" ref="L65:L68">_xlfn.UNIQUE(L1:L63)</f>
-        <v>kl_bURI</v>
-      </c>
-      <c r="M65" s="1" t="str" cm="1">
-        <f t="array" ref="M65:M68">_xlfn.UNIQUE(M1:M63)</f>
-        <v>kl_b</v>
-      </c>
-      <c r="N65" s="1" t="str" cm="1">
-        <f t="array" ref="N65:N68">_xlfn.UNIQUE(N1:N63)</f>
-        <v>kl_b_aURI</v>
-      </c>
-      <c r="O65" s="1" t="str" cm="1">
-        <f t="array" ref="O65:O68">_xlfn.UNIQUE(O1:O63)</f>
-        <v>kl_b_a</v>
-      </c>
-      <c r="P65" s="1" t="str" cm="1">
-        <f t="array" ref="P65:P68">_xlfn.UNIQUE(P1:P63)</f>
-        <v>kl_b_gdURI</v>
-      </c>
-      <c r="Q65" s="1" t="str" cm="1">
-        <f t="array" ref="Q65:Q68">_xlfn.UNIQUE(Q1:Q63)</f>
-        <v>kl_b_gd</v>
-      </c>
-      <c r="R65" s="1" t="str" cm="1">
-        <f t="array" ref="R65:R68">_xlfn.UNIQUE(R1:R63)</f>
-        <v>kl_b_gnURI</v>
-      </c>
-      <c r="S65" s="1" t="str" cm="1">
-        <f t="array" ref="S65:S68">_xlfn.UNIQUE(S1:S63)</f>
-        <v>kl_b_gn</v>
-      </c>
-      <c r="T65" s="1" t="str" cm="1">
-        <f t="array" ref="T65:T67">_xlfn.UNIQUE(T1:T63)</f>
-        <v>kl_b_vURI</v>
-      </c>
-      <c r="U65" s="1" t="str" cm="1">
-        <f t="array" ref="U65:U67">_xlfn.UNIQUE(U1:U63)</f>
-        <v>kl_b_v</v>
-      </c>
-      <c r="V65" s="1" t="str" cm="1">
-        <f t="array" ref="V65:V69">_xlfn.UNIQUE(V1:V63)</f>
-        <v>lt_bURI</v>
-      </c>
-      <c r="W65" s="1" t="str" cm="1">
-        <f t="array" ref="W65:W69">_xlfn.UNIQUE(W1:W63)</f>
-        <v>lt_b</v>
-      </c>
-      <c r="X65" s="1" t="str" cm="1">
-        <f t="array" ref="X65:X67">_xlfn.UNIQUE(X1:X63)</f>
-        <v>lw_nURI</v>
-      </c>
-      <c r="Y65" s="1" t="str" cm="1">
-        <f t="array" ref="Y65:Y67">_xlfn.UNIQUE(Y1:Y63)</f>
-        <v>lw_n</v>
-      </c>
-      <c r="Z65" s="1" t="str" cm="1">
-        <f t="array" ref="Z65:Z67">_xlfn.UNIQUE(Z1:Z63)</f>
-        <v>kl_nURI</v>
-      </c>
-      <c r="AA65" s="1" t="str" cm="1">
-        <f t="array" ref="AA65:AA67">_xlfn.UNIQUE(AA1:AA63)</f>
-        <v>kl_n</v>
-      </c>
-      <c r="AB65" s="1" t="str" cm="1">
-        <f t="array" ref="AB65:AB67">_xlfn.UNIQUE(AB1:AB63)</f>
-        <v>kl_n_aURI</v>
-      </c>
-      <c r="AC65" s="1" t="str" cm="1">
-        <f t="array" ref="AC65:AC67">_xlfn.UNIQUE(AC1:AC63)</f>
-        <v>kl_n_a</v>
-      </c>
-      <c r="AD65" s="1" t="str" cm="1">
-        <f t="array" ref="AD65:AD67">_xlfn.UNIQUE(AD1:AD63)</f>
-        <v>kl_n_gdURI</v>
-      </c>
-      <c r="AE65" s="1" t="str" cm="1">
-        <f t="array" ref="AE65:AE67">_xlfn.UNIQUE(AE1:AE63)</f>
-        <v>kl_n_gd</v>
-      </c>
-      <c r="AF65" s="1" t="str" cm="1">
-        <f t="array" ref="AF65:AF67">_xlfn.UNIQUE(AF1:AF63)</f>
-        <v>kl_n_gnURI</v>
-      </c>
-      <c r="AG65" s="1" t="str" cm="1">
-        <f t="array" ref="AG65:AG67">_xlfn.UNIQUE(AG1:AG63)</f>
-        <v>kl_n_gn</v>
-      </c>
-      <c r="AH65" s="1" t="str" cm="1">
-        <f t="array" ref="AH65:AH66">_xlfn.UNIQUE(AH1:AH63)</f>
-        <v>kl_n_vURI</v>
-      </c>
-      <c r="AI65" s="1" t="str" cm="1">
-        <f t="array" ref="AI65:AI66">_xlfn.UNIQUE(AI1:AI63)</f>
-        <v>kl_n_v</v>
-      </c>
-      <c r="AJ65" s="1" t="str" cm="1">
-        <f t="array" ref="AJ65:AJ68">_xlfn.UNIQUE(AJ1:AJ63)</f>
-        <v>lt_nURI</v>
-      </c>
-      <c r="AK65" s="1" t="str" cm="1">
-        <f t="array" ref="AK65:AK68">_xlfn.UNIQUE(AK1:AK63)</f>
-        <v>lt_n</v>
-      </c>
-      <c r="AL65" s="1" t="str" cm="1">
-        <f t="array" ref="AL65:AL67">_xlfn.UNIQUE(AL1:AL63)</f>
-        <v>lw_tURI</v>
-      </c>
-      <c r="AM65" s="1" t="str" cm="1">
-        <f t="array" ref="AM65:AM67">_xlfn.UNIQUE(AM1:AM63)</f>
-        <v>lw_t</v>
-      </c>
-      <c r="AN65" s="1" t="str" cm="1">
-        <f t="array" ref="AN65:AN67">_xlfn.UNIQUE(AN1:AN63)</f>
-        <v>kl_tURI</v>
-      </c>
-      <c r="AO65" s="1" t="str" cm="1">
-        <f t="array" ref="AO65:AO67">_xlfn.UNIQUE(AO1:AO63)</f>
-        <v>kl_t</v>
-      </c>
-      <c r="AP65" s="1" t="str" cm="1">
-        <f t="array" ref="AP65:AP67">_xlfn.UNIQUE(AP1:AP63)</f>
-        <v>kl_t_aURI</v>
-      </c>
-      <c r="AQ65" s="1" t="str" cm="1">
-        <f t="array" ref="AQ65:AQ67">_xlfn.UNIQUE(AQ1:AQ63)</f>
-        <v>kl_t_a</v>
-      </c>
-      <c r="AR65" s="1" t="str" cm="1">
-        <f t="array" ref="AR65:AR67">_xlfn.UNIQUE(AR1:AR63)</f>
-        <v>kl_t_gdURI</v>
-      </c>
-      <c r="AS65" s="1" t="str" cm="1">
-        <f t="array" ref="AS65:AS67">_xlfn.UNIQUE(AS1:AS63)</f>
-        <v>kl_t_gd</v>
-      </c>
-      <c r="AT65" s="1" t="str" cm="1">
-        <f t="array" ref="AT65:AT67">_xlfn.UNIQUE(AT1:AT63)</f>
-        <v>kl_t_gnURI</v>
-      </c>
-      <c r="AU65" s="1" t="str" cm="1">
-        <f t="array" ref="AU65:AU67">_xlfn.UNIQUE(AU1:AU63)</f>
-        <v>kl_t_gn</v>
-      </c>
-      <c r="AV65" s="1" t="str" cm="1">
-        <f t="array" ref="AV65:AV66">_xlfn.UNIQUE(AV1:AV63)</f>
-        <v>kl_t_vURI</v>
-      </c>
-      <c r="AW65" s="1" t="str" cm="1">
-        <f t="array" ref="AW65:AW66">_xlfn.UNIQUE(AW1:AW63)</f>
-        <v>kl_t_v</v>
-      </c>
-      <c r="AX65" s="1" t="str" cm="1">
-        <f t="array" ref="AX65:AX68">_xlfn.UNIQUE(AX1:AX63)</f>
-        <v>lt_tURI</v>
-      </c>
-      <c r="AY65" s="1" t="str" cm="1">
-        <f t="array" ref="AY65:AY68">_xlfn.UNIQUE(AY1:AY63)</f>
-        <v>lt_t</v>
-      </c>
-      <c r="AZ65" s="1" t="str" cm="1">
-        <f t="array" ref="AZ65:AZ67">_xlfn.UNIQUE(AZ1:AZ63)</f>
-        <v>lw_vURI</v>
-      </c>
-      <c r="BA65" s="1" t="str" cm="1">
-        <f t="array" ref="BA65:BA67">_xlfn.UNIQUE(BA1:BA63)</f>
-        <v>lw_v</v>
-      </c>
-      <c r="BB65" s="1" t="str" cm="1">
-        <f t="array" ref="BB65:BB67">_xlfn.UNIQUE(BB1:BB63)</f>
-        <v>kl_vURI</v>
-      </c>
-      <c r="BC65" s="1" t="str" cm="1">
-        <f t="array" ref="BC65:BC67">_xlfn.UNIQUE(BC1:BC63)</f>
-        <v>kl_v</v>
-      </c>
-      <c r="BD65" s="1" t="str" cm="1">
-        <f t="array" ref="BD65:BD67">_xlfn.UNIQUE(BD1:BD63)</f>
-        <v>kl_v_aURI</v>
-      </c>
-      <c r="BE65" s="1" t="str" cm="1">
-        <f t="array" ref="BE65:BE67">_xlfn.UNIQUE(BE1:BE63)</f>
-        <v>kl_v_a</v>
-      </c>
-      <c r="BF65" s="1" t="str" cm="1">
-        <f t="array" ref="BF65:BF67">_xlfn.UNIQUE(BF1:BF63)</f>
-        <v>kl_v_gdURI</v>
-      </c>
-      <c r="BG65" s="1" t="str" cm="1">
-        <f t="array" ref="BG65:BG67">_xlfn.UNIQUE(BG1:BG63)</f>
-        <v>kl_v_gd</v>
-      </c>
-      <c r="BH65" s="1" t="str" cm="1">
-        <f t="array" ref="BH65:BH67">_xlfn.UNIQUE(BH1:BH63)</f>
-        <v>kl_v_gnURI</v>
-      </c>
-      <c r="BI65" s="1" t="str" cm="1">
-        <f t="array" ref="BI65:BI67">_xlfn.UNIQUE(BI1:BI63)</f>
-        <v>kl_v_gn</v>
-      </c>
-      <c r="BJ65" s="1" t="str" cm="1">
-        <f t="array" ref="BJ65:BJ66">_xlfn.UNIQUE(BJ1:BJ63)</f>
-        <v>kl_v_vURI</v>
-      </c>
-      <c r="BK65" s="1" t="str" cm="1">
-        <f t="array" ref="BK65:BK66">_xlfn.UNIQUE(BK1:BK63)</f>
-        <v>kl_v_v</v>
-      </c>
-      <c r="BL65" s="1" t="str" cm="1">
-        <f t="array" ref="BL65:BL68">_xlfn.UNIQUE(BL1:BL63)</f>
-        <v>lt_vURI</v>
-      </c>
-      <c r="BM65" s="1" t="str" cm="1">
-        <f t="array" ref="BM65:BM68">_xlfn.UNIQUE(BM1:BM63)</f>
-        <v>lt_v</v>
-      </c>
-      <c r="BN65" s="1" t="str" cm="1">
-        <f t="array" ref="BN65:BN66">_xlfn.UNIQUE(BN1:BN63)</f>
-        <v>element</v>
-      </c>
-      <c r="BO65" s="1" t="str" cm="1">
-        <f t="array" ref="BO65:BO66">_xlfn.UNIQUE(BO1:BO63)</f>
-        <v>sobjectURI</v>
-      </c>
-      <c r="BP65" s="1" t="str" cm="1">
-        <f t="array" ref="BP65:BP66">_xlfn.UNIQUE(BP1:BP63)</f>
-        <v>sobject</v>
-      </c>
-      <c r="BQ65" s="1" t="str" cm="1">
-        <f t="array" ref="BQ65:BQ66">_xlfn.UNIQUE(BQ1:BQ63)</f>
-        <v>aobjectURI</v>
-      </c>
-      <c r="BR65" s="1" t="str" cm="1">
-        <f t="array" ref="BR65:BR66">_xlfn.UNIQUE(BR1:BR63)</f>
-        <v>aobject</v>
-      </c>
-      <c r="BS65" s="1" t="str" cm="1">
-        <f t="array" ref="BS65:BS66">_xlfn.UNIQUE(BS1:BS63)</f>
-        <v>vrkl_kort</v>
-      </c>
-    </row>
-    <row r="66" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4f401d9e-7b60-4caf-ae29-bf0ccb0edef6</v>
-      </c>
-      <c r="B66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/99cd5c2b-367e-499a-aff4-393ad9176c5e</v>
-      </c>
-      <c r="C66" t="str">
-        <v>KW</v>
-      </c>
-      <c r="D66">
-        <v>1422</v>
-      </c>
-      <c r="E66" t="str">
-        <v>KUNSTWERK</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66" t="str">
-        <v>*</v>
-      </c>
-      <c r="I66" t="str">
-        <v>**</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/fa7f8757-afa0-4bbc-b556-734091491e54</v>
-      </c>
-      <c r="Y66" t="str">
-        <v>0.35</v>
-      </c>
-      <c r="Z66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="AA66">
-        <v>170</v>
-      </c>
-      <c r="AB66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="AC66">
-        <v>7</v>
-      </c>
-      <c r="AD66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="AE66">
-        <v>170</v>
-      </c>
-      <c r="AF66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="AG66">
-        <v>170</v>
-      </c>
-      <c r="AH66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="AI66">
-        <v>253</v>
-      </c>
-      <c r="AJ66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</v>
-      </c>
-      <c r="AK66" t="str">
-        <v>CONTINUOUS</v>
-      </c>
-      <c r="AL66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/fa7f8757-afa0-4bbc-b556-734091491e54</v>
-      </c>
-      <c r="AM66" t="str">
-        <v>0.35</v>
-      </c>
-      <c r="AN66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="AO66">
-        <v>170</v>
-      </c>
-      <c r="AP66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="AQ66">
-        <v>7</v>
-      </c>
-      <c r="AR66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="AS66">
-        <v>170</v>
-      </c>
-      <c r="AT66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="AU66">
-        <v>170</v>
-      </c>
-      <c r="AV66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="AW66">
-        <v>253</v>
-      </c>
-      <c r="AX66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</v>
-      </c>
-      <c r="AY66" t="str">
-        <v>CONTINUOUS</v>
-      </c>
-      <c r="AZ66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/fa7f8757-afa0-4bbc-b556-734091491e54</v>
-      </c>
-      <c r="BA66" t="str">
-        <v>0.35</v>
-      </c>
-      <c r="BB66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="BC66">
-        <v>170</v>
-      </c>
-      <c r="BD66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="BE66">
-        <v>7</v>
-      </c>
-      <c r="BF66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="BG66">
-        <v>170</v>
-      </c>
-      <c r="BH66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="BI66">
-        <v>170</v>
-      </c>
-      <c r="BJ66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="BK66">
-        <v>253</v>
-      </c>
-      <c r="BL66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/270c7274-5fc6-4b2c-804f-0eeafcef2cd8</v>
-      </c>
-      <c r="BM66" t="str">
-        <v>V-CONTINUOUS-SO</v>
-      </c>
-      <c r="BN66">
-        <v>0</v>
-      </c>
-      <c r="BO66">
-        <v>0</v>
-      </c>
-      <c r="BP66">
-        <v>0</v>
-      </c>
-      <c r="BQ66">
-        <v>0</v>
-      </c>
-      <c r="BR66">
-        <v>0</v>
-      </c>
-      <c r="BS66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2d885565-313c-4378-b593-a06e24d0c320</v>
-      </c>
-      <c r="D67">
-        <v>1423</v>
-      </c>
-      <c r="E67" t="str">
-        <v>KUNSTWERK_AQUADUCT</v>
-      </c>
-      <c r="F67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4f401d9e-7b60-4caf-ae29-bf0ccb0edef6</v>
-      </c>
-      <c r="G67">
-        <v>1422</v>
-      </c>
-      <c r="J67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bacc787a-3288-4f27-a233-6a58ce3d5c65</v>
-      </c>
-      <c r="K67" t="str">
-        <v>0.18</v>
-      </c>
-      <c r="L67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="M67">
-        <v>170</v>
-      </c>
-      <c r="N67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="O67">
-        <v>7</v>
-      </c>
-      <c r="P67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="Q67">
-        <v>170</v>
-      </c>
-      <c r="R67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</v>
-      </c>
-      <c r="S67">
-        <v>170</v>
-      </c>
-      <c r="T67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="U67">
-        <v>253</v>
-      </c>
-      <c r="V67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</v>
-      </c>
-      <c r="W67" t="str">
-        <v>CONTINUOUS</v>
-      </c>
-      <c r="X67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bacc787a-3288-4f27-a233-6a58ce3d5c65</v>
-      </c>
-      <c r="Y67" t="str">
-        <v>0.18</v>
-      </c>
-      <c r="Z67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="AA67">
-        <v>7</v>
-      </c>
-      <c r="AB67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5f86d069-e38a-406c-b82b-6889047ba877</v>
-      </c>
-      <c r="AC67">
-        <v>172</v>
-      </c>
-      <c r="AD67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="AE67">
-        <v>7</v>
-      </c>
-      <c r="AF67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="AG67">
-        <v>7</v>
-      </c>
-      <c r="AJ67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6a727e4b-4062-4918-a487-4b2b6b23abb8</v>
-      </c>
-      <c r="AK67" t="str">
-        <v>KW-PVR-SO</v>
-      </c>
-      <c r="AL67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bacc787a-3288-4f27-a233-6a58ce3d5c65</v>
-      </c>
-      <c r="AM67" t="str">
-        <v>0.18</v>
-      </c>
-      <c r="AN67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="AO67">
-        <v>7</v>
-      </c>
-      <c r="AP67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5f86d069-e38a-406c-b82b-6889047ba877</v>
-      </c>
-      <c r="AQ67">
-        <v>172</v>
-      </c>
-      <c r="AR67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="AS67">
-        <v>7</v>
-      </c>
-      <c r="AT67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="AU67">
-        <v>7</v>
-      </c>
-      <c r="AX67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6a727e4b-4062-4918-a487-4b2b6b23abb8</v>
-      </c>
-      <c r="AY67" t="str">
-        <v>KW-PVR-SO</v>
-      </c>
-      <c r="AZ67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bacc787a-3288-4f27-a233-6a58ce3d5c65</v>
-      </c>
-      <c r="BA67" t="str">
-        <v>0.18</v>
-      </c>
-      <c r="BB67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="BC67">
-        <v>7</v>
-      </c>
-      <c r="BD67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5f86d069-e38a-406c-b82b-6889047ba877</v>
-      </c>
-      <c r="BE67">
-        <v>172</v>
-      </c>
-      <c r="BF67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="BG67">
-        <v>7</v>
-      </c>
-      <c r="BH67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="BI67">
-        <v>7</v>
-      </c>
-      <c r="BL67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3fd9e965-3575-458d-a11f-d0cb6fc791e2</v>
-      </c>
-      <c r="BM67" t="str">
-        <v>V-KW-PVR-SO</v>
-      </c>
-    </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A68" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/747f0a48-61ef-4525-8fbf-847ed2ed61f2</v>
-      </c>
-      <c r="D68">
-        <v>3516</v>
-      </c>
-      <c r="E68" t="str">
-        <v>KUNSTWERK_BODEMVAL</v>
-      </c>
-      <c r="F68" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a705f592-76ee-478f-b6e5-7d456dda8304</v>
-      </c>
-      <c r="G68">
-        <v>1424</v>
-      </c>
-      <c r="L68" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="M68">
-        <v>7</v>
-      </c>
-      <c r="N68" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5f86d069-e38a-406c-b82b-6889047ba877</v>
-      </c>
-      <c r="O68">
-        <v>172</v>
-      </c>
-      <c r="P68" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="Q68">
-        <v>7</v>
-      </c>
-      <c r="R68" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</v>
-      </c>
-      <c r="S68">
-        <v>7</v>
-      </c>
-      <c r="V68" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6a727e4b-4062-4918-a487-4b2b6b23abb8</v>
-      </c>
-      <c r="W68" t="str">
-        <v>KW-PVR-SO</v>
-      </c>
-      <c r="AJ68" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9c5ac7a1-71fa-480e-b210-0ecc07a94e0e</v>
-      </c>
-      <c r="AK68" t="str">
-        <v>KW-ZICHTRUIMTE-SO</v>
-      </c>
-      <c r="AX68" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9c5ac7a1-71fa-480e-b210-0ecc07a94e0e</v>
-      </c>
-      <c r="AY68" t="str">
-        <v>KW-ZICHTRUIMTE-SO</v>
-      </c>
-      <c r="BL68" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/84484cee-65c6-42c0-8fdb-9d1353c2032a</v>
-      </c>
-      <c r="BM68" t="str">
-        <v>V-KW-ZICHTRUIMTE-SO</v>
-      </c>
-    </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A69" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a705f592-76ee-478f-b6e5-7d456dda8304</v>
-      </c>
-      <c r="D69">
-        <v>1424</v>
-      </c>
-      <c r="E69" t="str">
-        <v>KUNSTWERK_BRUG</v>
-      </c>
-      <c r="F69" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a58cf6c4-edac-4b62-8037-cf4a5e665221</v>
-      </c>
-      <c r="G69">
-        <v>1431</v>
-      </c>
-      <c r="V69" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9c5ac7a1-71fa-480e-b210-0ecc07a94e0e</v>
-      </c>
-      <c r="W69" t="str">
-        <v>KW-ZICHTRUIMTE-SO</v>
-      </c>
-    </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A70" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/1cc73034-5203-4144-9cf6-5136e29aab1e</v>
-      </c>
-      <c r="D70">
-        <v>1425</v>
-      </c>
-      <c r="E70" t="str">
-        <v>KUNSTWERK_BRUG_FIETSBRUG</v>
-      </c>
-      <c r="F70" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f026f505-3edd-4cf5-a3b4-d39f510ca5b8</v>
-      </c>
-      <c r="G70">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A71" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f46f12e9-dd03-4822-afce-75d6cb89e01b</v>
-      </c>
-      <c r="D71">
-        <v>1426</v>
-      </c>
-      <c r="E71" t="str">
-        <v>KUNSTWERK_BRUG_SPOORBRUG</v>
-      </c>
-      <c r="F71" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f4c512fd-34ba-4d14-8000-6cedc9123734</v>
-      </c>
-      <c r="G71">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A72" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/cbce931c-f0b0-44a7-a2ab-a8573166c656</v>
-      </c>
-      <c r="D72">
-        <v>1427</v>
-      </c>
-      <c r="E72" t="str">
-        <v>KUNSTWERK_BRUG_VOETGANGERSBRUG</v>
-      </c>
-      <c r="F72" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7cc445c8-1622-4502-8697-52187c68d999</v>
-      </c>
-      <c r="G72">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A73" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0a70ff1f-9e5d-48d2-9a4f-de57694a0b7b</v>
-      </c>
-      <c r="D73">
-        <v>1428</v>
-      </c>
-      <c r="E73" t="str">
-        <v>KUNSTWERK_BRUG_WEGVERKEERSBRUG</v>
-      </c>
-      <c r="F73" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/60edf1be-a06c-49a7-85ba-3925c6bbeb45</v>
-      </c>
-      <c r="G73">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A74" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c0dd5d83-fadf-4383-9795-4d33c5a4f933</v>
-      </c>
-      <c r="D74">
-        <v>3517</v>
-      </c>
-      <c r="E74" t="str">
-        <v>KUNSTWERK_COUPURE</v>
-      </c>
-      <c r="F74" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3b97282e-8e5b-4aaa-99c1-a75066243b47</v>
-      </c>
-      <c r="G74">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="75" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A75" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/70307f71-747e-47f5-ad02-280f6c7b1fea</v>
-      </c>
-      <c r="D75">
-        <v>3511</v>
-      </c>
-      <c r="E75" t="str">
-        <v>KUNSTWERK_DEK</v>
-      </c>
-      <c r="F75" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/273c7204-eb46-4f43-98ce-68fe7cc91e0f</v>
-      </c>
-      <c r="G75">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A76" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b2865b00-8ca2-4071-8299-2f33771dd285</v>
-      </c>
-      <c r="D76">
-        <v>1429</v>
-      </c>
-      <c r="E76" t="str">
-        <v>KUNSTWERK_DUIKER</v>
-      </c>
-      <c r="F76" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/96eef5a0-ec8a-43fd-a56a-a0e8f7b31f75</v>
-      </c>
-      <c r="G76">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A77" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/ef610568-e163-46b0-99a8-75ef09202f2f</v>
-      </c>
-      <c r="D77">
-        <v>1430</v>
-      </c>
-      <c r="E77" t="str">
-        <v>KUNSTWERK_FLYOVER</v>
-      </c>
-      <c r="F77" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/14980fbb-50c9-4906-bb09-342965629ff3</v>
-      </c>
-      <c r="G77">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A78" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a58cf6c4-edac-4b62-8037-cf4a5e665221</v>
-      </c>
-      <c r="D78">
-        <v>1431</v>
-      </c>
-      <c r="E78" t="str">
-        <v>KUNSTWERK_GELUIDSWERING</v>
-      </c>
-    </row>
-    <row r="79" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A79" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f026f505-3edd-4cf5-a3b4-d39f510ca5b8</v>
-      </c>
-      <c r="D79">
-        <v>1432</v>
-      </c>
-      <c r="E79" t="str">
-        <v>KUNSTWERK_GELUIDSWERING_SCHERM</v>
-      </c>
-    </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A80" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/25f088bf-d9ad-4744-81ca-b0aa3bdd7992</v>
-      </c>
-      <c r="D80">
-        <v>1433</v>
-      </c>
-      <c r="E80" t="str">
-        <v>KUNSTWERK_GELUIDSWERING_SCHERM_BEGROEIING</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6b642fc6-dcdc-4910-842e-4ed08fe27dfb</v>
-      </c>
-      <c r="D81">
-        <v>1434</v>
-      </c>
-      <c r="E81" t="str">
-        <v>KUNSTWERK_GELUIDSWERING_SCHERM_BETON</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/35036684-ee41-4714-8cfd-d7a7bf5f6609</v>
-      </c>
-      <c r="D82">
-        <v>1435</v>
-      </c>
-      <c r="E82" t="str">
-        <v>KUNSTWERK_GELUIDSWERING_SCHERM_GLAS</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f484201f-7a17-4463-977a-1066301d81fa</v>
-      </c>
-      <c r="D83">
-        <v>1436</v>
-      </c>
-      <c r="E83" t="str">
-        <v>KUNSTWERK_GELUIDSWERING_SCHERM_HOUT</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5df6e5b9-be6d-4061-bab7-b39524b8b751</v>
-      </c>
-      <c r="D84">
-        <v>1437</v>
-      </c>
-      <c r="E84" t="str">
-        <v>KUNSTWERK_GELUIDSWERING_SCHERM_METAAL</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f596c1b9-3c44-47aa-9bf9-482e53b3e5a9</v>
-      </c>
-      <c r="D85">
-        <v>3514</v>
-      </c>
-      <c r="E85" t="str">
-        <v>KUNSTWERK_GEMAAL</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/61b7dcc4-9a53-41f1-a223-ab6cb714ae36</v>
-      </c>
-      <c r="D86">
-        <v>1471</v>
-      </c>
-      <c r="E86" t="str">
-        <v>KUNSTWERK_LANDHOOFD</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/54073cd4-f201-4bd8-94e6-825c21037186</v>
-      </c>
-      <c r="D87">
-        <v>1438</v>
-      </c>
-      <c r="E87" t="str">
-        <v>KUNSTWERK_OVERKLUIZING</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/046e330d-7b7e-43f4-a4c1-e0ddbdd5083f</v>
-      </c>
-      <c r="D88">
-        <v>1468</v>
-      </c>
-      <c r="E88" t="str">
-        <v>KUNSTWERK_OVERSTORT</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/be6e3edb-a9e2-47e8-8270-20afc0bf79c3</v>
-      </c>
-      <c r="D89">
-        <v>3515</v>
-      </c>
-      <c r="E89" t="str">
-        <v>KUNSTWERK_PERRON</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/66f90468-7c88-431f-be78-5df8efbc9982</v>
-      </c>
-      <c r="D90">
-        <v>1470</v>
-      </c>
-      <c r="E90" t="str">
-        <v>KUNSTWERK_PIJLER</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2f94ea61-69f1-44ca-867e-f477e0ce597c</v>
-      </c>
-      <c r="D91">
-        <v>3518</v>
-      </c>
-      <c r="E91" t="str">
-        <v>KUNSTWERK_PONTON</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d58e6f47-8b0d-4e43-8d9e-5697283b3b14</v>
-      </c>
-      <c r="D92">
-        <v>1472</v>
-      </c>
-      <c r="E92" t="str">
-        <v>KUNSTWERK_PROFIELVRIJERUIMTE</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4e0dd18b-c068-4a18-b0e0-2a7778e9491d</v>
-      </c>
-      <c r="D93">
-        <v>3513</v>
-      </c>
-      <c r="E93" t="str">
-        <v>KUNSTWERK_PYLOON</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c05d89fd-9cff-4806-9035-b43ba708c40e</v>
-      </c>
-      <c r="D94">
-        <v>1439</v>
-      </c>
-      <c r="E94" t="str">
-        <v>KUNSTWERK_REMMINGSWERK</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f69186ba-8239-4b77-8519-1c95b048a864</v>
-      </c>
-      <c r="D95">
-        <v>3512</v>
-      </c>
-      <c r="E95" t="str">
-        <v>KUNSTWERK_SLOOF</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f4c512fd-34ba-4d14-8000-6cedc9123734</v>
-      </c>
-      <c r="D96">
-        <v>1440</v>
-      </c>
-      <c r="E96" t="str">
-        <v>KUNSTWERK_SLUIS</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/30cd4cde-5364-4f31-ad7b-e3832863a253</v>
-      </c>
-      <c r="D97">
-        <v>1441</v>
-      </c>
-      <c r="E97" t="str">
-        <v>KUNSTWERK_SLUIS_INLAATSLUIS</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4ee76b6a-4a65-412a-9610-263b1692e7ba</v>
-      </c>
-      <c r="D98">
-        <v>1442</v>
-      </c>
-      <c r="E98" t="str">
-        <v>KUNSTWERK_SLUIS_INNUNDATIESLUIS</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0d458a08-0c24-46e4-8888-32c75ceff0c3</v>
-      </c>
-      <c r="D99">
-        <v>1443</v>
-      </c>
-      <c r="E99" t="str">
-        <v>KUNSTWERK_SLUIS_KEERSLUIS</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3e8a8b5f-beea-4687-9470-1fb9e31c68bb</v>
-      </c>
-      <c r="D100">
-        <v>1444</v>
-      </c>
-      <c r="E100" t="str">
-        <v>KUNSTWERK_SLUIS_SCHUTSLUIS</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9e6518d7-4d43-4298-a62e-cccb5402f236</v>
-      </c>
-      <c r="D101">
-        <v>1445</v>
-      </c>
-      <c r="E101" t="str">
-        <v>KUNSTWERK_SLUIS_TIJSLUIS</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/958d8e41-326b-43cd-8145-4a3a6e04cb05</v>
-      </c>
-      <c r="D102">
-        <v>1446</v>
-      </c>
-      <c r="E102" t="str">
-        <v>KUNSTWERK_SLUIS_UITWATERINGSSSLUIS</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/538871dc-58d6-4bb7-93a7-eccbbefb6a53</v>
-      </c>
-      <c r="D103">
-        <v>1447</v>
-      </c>
-      <c r="E103" t="str">
-        <v>KUNSTWERK_STEIGER</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/513ffb5e-559a-4437-9327-d6d50ba9a37a</v>
-      </c>
-      <c r="D104">
-        <v>1448</v>
-      </c>
-      <c r="E104" t="str">
-        <v>KUNSTWERK_STUW</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5ec88f26-c5a0-4ba6-95e0-9c505b1a5ac5</v>
-      </c>
-      <c r="D105">
-        <v>1469</v>
-      </c>
-      <c r="E105" t="str">
-        <v>KUNSTWERK_SYPHON</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7cc445c8-1622-4502-8697-52187c68d999</v>
-      </c>
-      <c r="D106">
-        <v>1449</v>
-      </c>
-      <c r="E106" t="str">
-        <v>KUNSTWERK_TUNNEL</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2374d9c9-3c1b-43e4-879d-d38f67dc04cf</v>
-      </c>
-      <c r="D107">
-        <v>1450</v>
-      </c>
-      <c r="E107" t="str">
-        <v>KUNSTWERK_TUNNEL_FIETSTUNNEL</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/372b1c59-98b8-464d-9a7e-6133259946e3</v>
-      </c>
-      <c r="D108">
-        <v>1451</v>
-      </c>
-      <c r="E108" t="str">
-        <v>KUNSTWERK_TUNNEL_SPOORTUNNEL</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2d659621-31d8-422f-bda4-452d14d0ad57</v>
-      </c>
-      <c r="D109">
-        <v>1452</v>
-      </c>
-      <c r="E109" t="str">
-        <v>KUNSTWERK_TUNNEL_VOETGANGERSTUNNEL</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d9412dbc-927b-4d87-9a67-0d2572451c12</v>
-      </c>
-      <c r="D110">
-        <v>1453</v>
-      </c>
-      <c r="E110" t="str">
-        <v>KUNSTWERK_TUNNEL_WEGVERKEERTUNNEL</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/60edf1be-a06c-49a7-85ba-3925c6bbeb45</v>
-      </c>
-      <c r="D111">
-        <v>1454</v>
-      </c>
-      <c r="E111" t="str">
-        <v>KUNSTWERK_TUNNELBAK</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a3386ee9-e734-448f-a928-836f001305cf</v>
-      </c>
-      <c r="D112">
-        <v>1455</v>
-      </c>
-      <c r="E112" t="str">
-        <v>KUNSTWERK_TUNNELBAK_SPOORTUNNELBAK</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6f46ea91-1c42-4951-8894-686aa93e7931</v>
-      </c>
-      <c r="D113">
-        <v>1456</v>
-      </c>
-      <c r="E113" t="str">
-        <v>KUNSTWERK_TUNNELBAK_WEGVERKEERSTUNNELBAK</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3b97282e-8e5b-4aaa-99c1-a75066243b47</v>
-      </c>
-      <c r="D114">
-        <v>1457</v>
-      </c>
-      <c r="E114" t="str">
-        <v>KUNSTWERK_VIADUCT</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/1831dbd1-8680-46ed-93a0-593f4915f07f</v>
-      </c>
-      <c r="D115">
-        <v>1458</v>
-      </c>
-      <c r="E115" t="str">
-        <v>KUNSTWERK_VIADUCT_FIETSVIADUCT</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/83f38012-069f-4b53-9dbd-59e1a7d5967f</v>
-      </c>
-      <c r="D116">
-        <v>1459</v>
-      </c>
-      <c r="E116" t="str">
-        <v>KUNSTWERK_VIADUCT_SPOORVIADUCT</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9d8502a9-fea3-46be-93e3-e42ae4a9075a</v>
-      </c>
-      <c r="D117">
-        <v>1460</v>
-      </c>
-      <c r="E117" t="str">
-        <v>KUNSTWERK_VIADUCT_VOETGANGERSVIADUCT</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/cdaa154a-f5f3-47db-9183-919b2233b370</v>
-      </c>
-      <c r="D118">
-        <v>1461</v>
-      </c>
-      <c r="E118" t="str">
-        <v>KUNSTWERK_VIADUCT_WEGVERKEERSVIADUCT</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2096ee59-5101-49b5-93b0-922d087b9f0b</v>
-      </c>
-      <c r="D119">
-        <v>1473</v>
-      </c>
-      <c r="E119" t="str">
-        <v>KUNSTWERK_VOEGOVERGANG</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a178b534-8ca9-410d-8160-d65e54fc4ee5</v>
-      </c>
-      <c r="D120">
-        <v>3519</v>
-      </c>
-      <c r="E120" t="str">
-        <v>KUNSTWERK_VOORDE</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/273c7204-eb46-4f43-98ce-68fe7cc91e0f</v>
-      </c>
-      <c r="D121">
-        <v>1462</v>
-      </c>
-      <c r="E121" t="str">
-        <v>KUNSTWERK_WILDWISSEL</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/96eef5a0-ec8a-43fd-a56a-a0e8f7b31f75</v>
-      </c>
-      <c r="D122">
-        <v>1463</v>
-      </c>
-      <c r="E122" t="str">
-        <v>KUNSTWERK_WILDWISSEL_ECODUCT</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6627a4c4-081c-4289-a48e-e5d3afc85554</v>
-      </c>
-      <c r="D123">
-        <v>1464</v>
-      </c>
-      <c r="E123" t="str">
-        <v>KUNSTWERK_WILDWISSEL_ECODUCT_WILDVIADUCT</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/14980fbb-50c9-4906-bb09-342965629ff3</v>
-      </c>
-      <c r="D124">
-        <v>1465</v>
-      </c>
-      <c r="E124" t="str">
-        <v>KUNSTWERK_WILDWISSEL_ECOTUNNEL</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9be3d8a9-fadb-4203-bc90-8376f5dd029b</v>
-      </c>
-      <c r="D125">
-        <v>1466</v>
-      </c>
-      <c r="E125" t="str">
-        <v>KUNSTWERK_WILDWISSEL_ECOTUNNEL_VEETUNNEL</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/66fa1c8f-227c-4282-92b3-bc89c1169952</v>
-      </c>
-      <c r="D126">
-        <v>1467</v>
-      </c>
-      <c r="E126" t="str">
-        <v>KUNSTWERK_WILDWISSEL_ECOTUNNEL_WILDTUNNEL</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4529cbbf-b62b-4fa7-b48e-916fc945ae06</v>
-      </c>
-      <c r="D127">
-        <v>1474</v>
-      </c>
-      <c r="E127" t="str">
-        <v>KUNSTWERK_ZICHTRUIMTE</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:BS63" xr:uid="{207DD124-A346-4886-BD08-FC0A23D41CC0}">
+  <autoFilter ref="A1:BS63" xr:uid="{6EC35C7D-1EFF-4D6A-9754-39800D8149A4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS63">
       <sortCondition ref="E1:E63"/>
     </sortState>
